--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5Lag12_동해선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5Lag12_동해선.xlsx
@@ -51,9 +51,6 @@
     <t>NBEATSx</t>
   </si>
   <si>
-    <t>NHITS</t>
-  </si>
-  <si>
     <t>TCN</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>RandomForest</t>
+  </si>
+  <si>
+    <t>NHITS</t>
   </si>
   <si>
     <t>CatBoost</t>
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>92864207745.50391</v>
+        <v>177115209766.8254</v>
       </c>
       <c r="C5">
-        <v>304736.292137159</v>
+        <v>420850.5789075565</v>
       </c>
       <c r="D5">
-        <v>0.2069522438989244</v>
+        <v>0.3736964488448751</v>
       </c>
       <c r="E5">
-        <v>267439.5208333333</v>
+        <v>388553.6041666667</v>
       </c>
       <c r="F5">
-        <v>0.4157566970041779</v>
+        <v>0.6034953646831956</v>
       </c>
       <c r="G5">
-        <v>269579.5</v>
+        <v>362954.1953125</v>
       </c>
       <c r="H5">
-        <v>0.4790348775942477</v>
+        <v>0.6277843741018562</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -592,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>177115209766.8254</v>
+        <v>205124370515.2877</v>
       </c>
       <c r="C6">
-        <v>420850.5789075565</v>
+        <v>452906.5803400163</v>
       </c>
       <c r="D6">
-        <v>0.3736964488448751</v>
+        <v>0.4103322039463957</v>
       </c>
       <c r="E6">
-        <v>388553.6041666667</v>
+        <v>403283.7141927083</v>
       </c>
       <c r="F6">
-        <v>0.6034953646831956</v>
+        <v>0.619178785235035</v>
       </c>
       <c r="G6">
-        <v>362954.1953125</v>
+        <v>366306.078125</v>
       </c>
       <c r="H6">
-        <v>0.6277843741018562</v>
+        <v>0.6250546662798209</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>205124370515.2877</v>
+        <v>242104244523.8453</v>
       </c>
       <c r="C7">
-        <v>452906.5803400163</v>
+        <v>492040.8972065689</v>
       </c>
       <c r="D7">
-        <v>0.4103322039463957</v>
+        <v>0.4670581976608575</v>
       </c>
       <c r="E7">
-        <v>403283.7141927083</v>
+        <v>437343.837890625</v>
       </c>
       <c r="F7">
-        <v>0.619178785235035</v>
+        <v>0.6684717680245619</v>
       </c>
       <c r="G7">
-        <v>366306.078125</v>
+        <v>371444.8125</v>
       </c>
       <c r="H7">
-        <v>0.6250546662798209</v>
+        <v>0.6318759284521405</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>242104244523.8453</v>
+        <v>225945324315.018</v>
       </c>
       <c r="C8">
-        <v>492040.8972065689</v>
+        <v>475337.0638978387</v>
       </c>
       <c r="D8">
-        <v>0.4670581976608575</v>
+        <v>0.4642033229970167</v>
       </c>
       <c r="E8">
-        <v>437343.837890625</v>
+        <v>429214.0501302083</v>
       </c>
       <c r="F8">
-        <v>0.6684717680245619</v>
+        <v>0.6621647348602453</v>
       </c>
       <c r="G8">
-        <v>371444.8125</v>
+        <v>378447.1796875</v>
       </c>
       <c r="H8">
-        <v>0.6318759284521405</v>
+        <v>0.6772943085089387</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>225945324315.018</v>
+        <v>237215659254.8062</v>
       </c>
       <c r="C9">
-        <v>475337.0638978387</v>
+        <v>487047.9024231664</v>
       </c>
       <c r="D9">
-        <v>0.4642033229970167</v>
+        <v>0.4841771184406696</v>
       </c>
       <c r="E9">
-        <v>429214.0501302083</v>
+        <v>438942.1640625</v>
       </c>
       <c r="F9">
-        <v>0.6621647348602453</v>
+        <v>0.6763628784002426</v>
       </c>
       <c r="G9">
-        <v>378447.1796875</v>
+        <v>394101.2109375</v>
       </c>
       <c r="H9">
-        <v>0.6772943085089387</v>
+        <v>0.683104441515148</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>237215659254.8062</v>
+        <v>349904030529.6813</v>
       </c>
       <c r="C10">
-        <v>487047.9024231664</v>
+        <v>591526.8637430436</v>
       </c>
       <c r="D10">
-        <v>0.4841771184406696</v>
+        <v>0.7764349202769202</v>
       </c>
       <c r="E10">
-        <v>438942.1640625</v>
+        <v>560461.4090092985</v>
       </c>
       <c r="F10">
-        <v>0.6763628784002426</v>
+        <v>0.879899642768132</v>
       </c>
       <c r="G10">
-        <v>394101.2109375</v>
+        <v>502215.8513828649</v>
       </c>
       <c r="H10">
-        <v>0.683104441515148</v>
+        <v>0.8812437871022509</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>349904030529.6813</v>
+        <v>369460477947.7816</v>
       </c>
       <c r="C11">
-        <v>591526.8637430436</v>
+        <v>607832.6068481202</v>
       </c>
       <c r="D11">
-        <v>0.7764349202769202</v>
+        <v>0.8202166794191355</v>
       </c>
       <c r="E11">
-        <v>560461.4090092985</v>
+        <v>574698.7453770877</v>
       </c>
       <c r="F11">
-        <v>0.879899642768132</v>
+        <v>0.9022712437673563</v>
       </c>
       <c r="G11">
-        <v>502215.8513828649</v>
+        <v>518447.4204761905</v>
       </c>
       <c r="H11">
-        <v>0.8812437871022509</v>
+        <v>0.9155854215216976</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>369460477947.7816</v>
+        <v>843125763075.704</v>
       </c>
       <c r="C12">
-        <v>607832.6068481202</v>
+        <v>918218.7991299807</v>
       </c>
       <c r="D12">
-        <v>0.8202166794191355</v>
+        <v>2.415149455610289</v>
       </c>
       <c r="E12">
-        <v>574698.7453770877</v>
+        <v>703326.8411458334</v>
       </c>
       <c r="F12">
-        <v>0.9022712437673563</v>
+        <v>1.159144871697037</v>
       </c>
       <c r="G12">
-        <v>518447.4204761905</v>
+        <v>455851.0078125</v>
       </c>
       <c r="H12">
-        <v>0.9155854215216976</v>
+        <v>0.6838021470604081</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -933,28 +933,28 @@
         <v>471520.71875</v>
       </c>
       <c r="G2">
-        <v>634074.75</v>
+        <v>278437.46875</v>
       </c>
       <c r="H2">
-        <v>278437.46875</v>
+        <v>95282.0546875</v>
       </c>
       <c r="I2">
-        <v>95282.0546875</v>
+        <v>150097.78125</v>
       </c>
       <c r="J2">
-        <v>150097.78125</v>
+        <v>153354.53125</v>
       </c>
       <c r="K2">
-        <v>153354.53125</v>
+        <v>104271.953125</v>
       </c>
       <c r="L2">
-        <v>104271.953125</v>
+        <v>65078.18678217099</v>
       </c>
       <c r="M2">
-        <v>65078.18678217099</v>
+        <v>90662.35451803749</v>
       </c>
       <c r="N2">
-        <v>90662.35451803749</v>
+        <v>485122.96875</v>
       </c>
       <c r="O2">
         <v>85185.68966818415</v>
@@ -986,28 +986,28 @@
         <v>465927.6875</v>
       </c>
       <c r="G3">
-        <v>629871.1875</v>
+        <v>327245.71875</v>
       </c>
       <c r="H3">
-        <v>327245.71875</v>
+        <v>198414.125</v>
       </c>
       <c r="I3">
-        <v>198414.125</v>
+        <v>71838.3984375</v>
       </c>
       <c r="J3">
-        <v>71838.3984375</v>
+        <v>183737.953125</v>
       </c>
       <c r="K3">
-        <v>183737.953125</v>
+        <v>150440.84375</v>
       </c>
       <c r="L3">
-        <v>150440.84375</v>
+        <v>36513.67644318343</v>
       </c>
       <c r="M3">
-        <v>36513.67644318343</v>
+        <v>2711.005</v>
       </c>
       <c r="N3">
-        <v>2711.005</v>
+        <v>463585.6875</v>
       </c>
       <c r="O3">
         <v>586.7823860791977</v>
@@ -1039,28 +1039,28 @@
         <v>472111.46875</v>
       </c>
       <c r="G4">
-        <v>651139.6875</v>
+        <v>279173.75</v>
       </c>
       <c r="H4">
-        <v>279173.75</v>
+        <v>257034.375</v>
       </c>
       <c r="I4">
-        <v>257034.375</v>
+        <v>232892.5</v>
       </c>
       <c r="J4">
-        <v>232892.5</v>
+        <v>183227.5</v>
       </c>
       <c r="K4">
-        <v>183227.5</v>
+        <v>196987.609375</v>
       </c>
       <c r="L4">
-        <v>196987.609375</v>
+        <v>68417.87894695351</v>
       </c>
       <c r="M4">
-        <v>68417.87894695351</v>
+        <v>13208.48988797314</v>
       </c>
       <c r="N4">
-        <v>13208.48988797314</v>
+        <v>395515.0625</v>
       </c>
       <c r="O4">
         <v>7864.214931780996</v>
@@ -1092,28 +1092,28 @@
         <v>499529.75</v>
       </c>
       <c r="G5">
-        <v>699240.75</v>
+        <v>297036</v>
       </c>
       <c r="H5">
-        <v>297036</v>
+        <v>220554.015625</v>
       </c>
       <c r="I5">
-        <v>220554.015625</v>
+        <v>209404.53125</v>
       </c>
       <c r="J5">
-        <v>209404.53125</v>
+        <v>204308.234375</v>
       </c>
       <c r="K5">
-        <v>204308.234375</v>
+        <v>184601.515625</v>
       </c>
       <c r="L5">
-        <v>184601.515625</v>
+        <v>66716.11045209928</v>
       </c>
       <c r="M5">
-        <v>66716.11045209928</v>
+        <v>20232.53468542569</v>
       </c>
       <c r="N5">
-        <v>20232.53468542569</v>
+        <v>293635.0625</v>
       </c>
       <c r="O5">
         <v>2180.717223576677</v>
@@ -1145,28 +1145,28 @@
         <v>437291.375</v>
       </c>
       <c r="G6">
-        <v>725105.125</v>
+        <v>307490.03125</v>
       </c>
       <c r="H6">
-        <v>307490.03125</v>
+        <v>211514.84375</v>
       </c>
       <c r="I6">
-        <v>211514.84375</v>
+        <v>154303.265625</v>
       </c>
       <c r="J6">
-        <v>154303.265625</v>
+        <v>241637.65625</v>
       </c>
       <c r="K6">
-        <v>241637.65625</v>
+        <v>179920.0625</v>
       </c>
       <c r="L6">
-        <v>179920.0625</v>
+        <v>87921.54369895517</v>
       </c>
       <c r="M6">
-        <v>87921.54369895517</v>
+        <v>91950.87008011669</v>
       </c>
       <c r="N6">
-        <v>91950.87008011669</v>
+        <v>178146.609375</v>
       </c>
       <c r="O6">
         <v>85836.10113750568</v>
@@ -1198,28 +1198,28 @@
         <v>479187.03125</v>
       </c>
       <c r="G7">
-        <v>811273.6875</v>
+        <v>257632.9375</v>
       </c>
       <c r="H7">
-        <v>257632.9375</v>
+        <v>183690.484375</v>
       </c>
       <c r="I7">
-        <v>183690.484375</v>
+        <v>203015.203125</v>
       </c>
       <c r="J7">
-        <v>203015.203125</v>
+        <v>177408.140625</v>
       </c>
       <c r="K7">
-        <v>177408.140625</v>
+        <v>191549.671875</v>
       </c>
       <c r="L7">
-        <v>191549.671875</v>
+        <v>78703.72051319062</v>
       </c>
       <c r="M7">
-        <v>78703.72051319062</v>
+        <v>38097.4</v>
       </c>
       <c r="N7">
-        <v>38097.4</v>
+        <v>179552.015625</v>
       </c>
       <c r="O7">
         <v>1287.957432354408</v>
@@ -1251,28 +1251,28 @@
         <v>472001.5</v>
       </c>
       <c r="G8">
-        <v>979491.75</v>
+        <v>207500.625</v>
       </c>
       <c r="H8">
-        <v>207500.625</v>
+        <v>148488.875</v>
       </c>
       <c r="I8">
-        <v>148488.875</v>
+        <v>146657.640625</v>
       </c>
       <c r="J8">
-        <v>146657.640625</v>
+        <v>144947.421875</v>
       </c>
       <c r="K8">
-        <v>144947.421875</v>
+        <v>79343.640625</v>
       </c>
       <c r="L8">
-        <v>79343.640625</v>
+        <v>133090.183268032</v>
       </c>
       <c r="M8">
-        <v>133090.183268032</v>
+        <v>157078.2046467976</v>
       </c>
       <c r="N8">
-        <v>157078.2046467976</v>
+        <v>529534.5</v>
       </c>
       <c r="O8">
         <v>138365.2148227787</v>
@@ -1304,28 +1304,28 @@
         <v>444057.96875</v>
       </c>
       <c r="G9">
-        <v>1021881.875</v>
+        <v>215640.078125</v>
       </c>
       <c r="H9">
-        <v>215640.078125</v>
+        <v>133050.234375</v>
       </c>
       <c r="I9">
-        <v>133050.234375</v>
+        <v>68941.6875</v>
       </c>
       <c r="J9">
-        <v>68941.6875</v>
+        <v>31995.5703125</v>
       </c>
       <c r="K9">
-        <v>31995.5703125</v>
+        <v>85942.796875</v>
       </c>
       <c r="L9">
-        <v>85942.796875</v>
+        <v>82307.5356845565</v>
       </c>
       <c r="M9">
-        <v>82307.5356845565</v>
+        <v>94211.21252886001</v>
       </c>
       <c r="N9">
-        <v>94211.21252886001</v>
+        <v>1094815.625</v>
       </c>
       <c r="O9">
         <v>91122.8238470458</v>
@@ -1357,28 +1357,28 @@
         <v>440442.28125</v>
       </c>
       <c r="G10">
-        <v>924003.5</v>
+        <v>230978.453125</v>
       </c>
       <c r="H10">
-        <v>230978.453125</v>
+        <v>245944.359375</v>
       </c>
       <c r="I10">
-        <v>245944.359375</v>
+        <v>230376.84375</v>
       </c>
       <c r="J10">
-        <v>230376.84375</v>
+        <v>156798.484375</v>
       </c>
       <c r="K10">
-        <v>156798.484375</v>
+        <v>189899.625</v>
       </c>
       <c r="L10">
-        <v>189899.625</v>
+        <v>56174.33604527057</v>
       </c>
       <c r="M10">
-        <v>56174.33604527057</v>
+        <v>11982.6775</v>
       </c>
       <c r="N10">
-        <v>11982.6775</v>
+        <v>1526847.125</v>
       </c>
       <c r="O10">
         <v>234.8591650852031</v>
@@ -1410,28 +1410,28 @@
         <v>412644.4375</v>
       </c>
       <c r="G11">
-        <v>836483.3125</v>
+        <v>204356.53125</v>
       </c>
       <c r="H11">
-        <v>204356.53125</v>
+        <v>410084.09375</v>
       </c>
       <c r="I11">
-        <v>410084.09375</v>
+        <v>286441.96875</v>
       </c>
       <c r="J11">
-        <v>286441.96875</v>
+        <v>379079.125</v>
       </c>
       <c r="K11">
-        <v>379079.125</v>
+        <v>390235.65625</v>
       </c>
       <c r="L11">
-        <v>390235.65625</v>
+        <v>87921.54369895517</v>
       </c>
       <c r="M11">
-        <v>87921.54369895517</v>
+        <v>91950.87008011669</v>
       </c>
       <c r="N11">
-        <v>91950.87008011669</v>
+        <v>1949017.75</v>
       </c>
       <c r="O11">
         <v>85836.10113750568</v>
@@ -1463,28 +1463,28 @@
         <v>400579.53125</v>
       </c>
       <c r="G12">
-        <v>810626.5</v>
+        <v>133143.984375</v>
       </c>
       <c r="H12">
-        <v>133143.984375</v>
+        <v>326499.90625</v>
       </c>
       <c r="I12">
-        <v>326499.90625</v>
+        <v>255084.84375</v>
       </c>
       <c r="J12">
-        <v>255084.84375</v>
+        <v>268656.28125</v>
       </c>
       <c r="K12">
-        <v>268656.28125</v>
+        <v>267718.78125</v>
       </c>
       <c r="L12">
-        <v>267718.78125</v>
+        <v>33946.04030977908</v>
       </c>
       <c r="M12">
-        <v>33946.04030977908</v>
+        <v>58048.75904761904</v>
       </c>
       <c r="N12">
-        <v>58048.75904761904</v>
+        <v>2298799</v>
       </c>
       <c r="O12">
         <v>17708.92302642329</v>
@@ -1516,28 +1516,28 @@
         <v>384488.53125</v>
       </c>
       <c r="G13">
-        <v>887814.5</v>
+        <v>177223.171875</v>
       </c>
       <c r="H13">
-        <v>177223.171875</v>
+        <v>308540.0625</v>
       </c>
       <c r="I13">
-        <v>308540.0625</v>
+        <v>321321.28125</v>
       </c>
       <c r="J13">
-        <v>321321.28125</v>
+        <v>302782.5</v>
       </c>
       <c r="K13">
-        <v>302782.5</v>
+        <v>290283.875</v>
       </c>
       <c r="L13">
-        <v>290283.875</v>
+        <v>56174.33604527057</v>
       </c>
       <c r="M13">
-        <v>56174.33604527057</v>
+        <v>11982.6775</v>
       </c>
       <c r="N13">
-        <v>11982.6775</v>
+        <v>2354618.5</v>
       </c>
       <c r="O13">
         <v>234.8591650852031</v>
@@ -1569,28 +1569,28 @@
         <v>356030.34375</v>
       </c>
       <c r="G14">
-        <v>903229.25</v>
+        <v>135065.609375</v>
       </c>
       <c r="H14">
-        <v>135065.609375</v>
+        <v>405017.03125</v>
       </c>
       <c r="I14">
-        <v>405017.03125</v>
+        <v>326013.625</v>
       </c>
       <c r="J14">
-        <v>326013.625</v>
+        <v>245663.078125</v>
       </c>
       <c r="K14">
-        <v>245663.078125</v>
+        <v>326522</v>
       </c>
       <c r="L14">
-        <v>326522</v>
+        <v>82547.21267997137</v>
       </c>
       <c r="M14">
-        <v>82547.21267997137</v>
+        <v>88683.60725874123</v>
       </c>
       <c r="N14">
-        <v>88683.60725874123</v>
+        <v>2289780.25</v>
       </c>
       <c r="O14">
         <v>85737.05530646395</v>
@@ -1622,28 +1622,28 @@
         <v>356437.75</v>
       </c>
       <c r="G15">
-        <v>935248.125</v>
+        <v>96078.6953125</v>
       </c>
       <c r="H15">
-        <v>96078.6953125</v>
+        <v>435982.875</v>
       </c>
       <c r="I15">
-        <v>435982.875</v>
+        <v>523721.0625</v>
       </c>
       <c r="J15">
-        <v>523721.0625</v>
+        <v>338763.90625</v>
       </c>
       <c r="K15">
-        <v>338763.90625</v>
+        <v>489260.34375</v>
       </c>
       <c r="L15">
-        <v>489260.34375</v>
+        <v>110170.0952771457</v>
       </c>
       <c r="M15">
-        <v>110170.0952771457</v>
+        <v>184171.1541181319</v>
       </c>
       <c r="N15">
-        <v>184171.1541181319</v>
+        <v>2251777.75</v>
       </c>
       <c r="O15">
         <v>165013.7206412074</v>
@@ -1675,28 +1675,28 @@
         <v>328861.4375</v>
       </c>
       <c r="G16">
-        <v>1162623.625</v>
+        <v>63343.1796875</v>
       </c>
       <c r="H16">
-        <v>63343.1796875</v>
+        <v>374207.9375</v>
       </c>
       <c r="I16">
-        <v>374207.9375</v>
+        <v>408758.78125</v>
       </c>
       <c r="J16">
-        <v>408758.78125</v>
+        <v>305601.15625</v>
       </c>
       <c r="K16">
-        <v>305601.15625</v>
+        <v>387839.6875</v>
       </c>
       <c r="L16">
-        <v>387839.6875</v>
+        <v>54536.41237534229</v>
       </c>
       <c r="M16">
-        <v>54536.41237534229</v>
+        <v>8556.182040404039</v>
       </c>
       <c r="N16">
-        <v>8556.182040404039</v>
+        <v>2576475.5</v>
       </c>
       <c r="O16">
         <v>-827.5552635034837</v>
@@ -1728,28 +1728,28 @@
         <v>326160.3125</v>
       </c>
       <c r="G17">
-        <v>1493175.5</v>
+        <v>6203.22509765625</v>
       </c>
       <c r="H17">
-        <v>6203.22509765625</v>
+        <v>329619.5625</v>
       </c>
       <c r="I17">
-        <v>329619.5625</v>
+        <v>352983.5</v>
       </c>
       <c r="J17">
-        <v>352983.5</v>
+        <v>182955.875</v>
       </c>
       <c r="K17">
-        <v>182955.875</v>
+        <v>323311.625</v>
       </c>
       <c r="L17">
-        <v>323311.625</v>
+        <v>87681.86670354029</v>
       </c>
       <c r="M17">
-        <v>87681.86670354029</v>
+        <v>16179.1848994339</v>
       </c>
       <c r="N17">
-        <v>16179.1848994339</v>
+        <v>3110674.5</v>
       </c>
       <c r="O17">
         <v>2599.791724724244</v>
@@ -1781,28 +1781,28 @@
         <v>363858.59375</v>
       </c>
       <c r="G18">
-        <v>1904517.5</v>
+        <v>44791.3828125</v>
       </c>
       <c r="H18">
-        <v>44791.3828125</v>
+        <v>359441.96875</v>
       </c>
       <c r="I18">
-        <v>359441.96875</v>
+        <v>324416.40625</v>
       </c>
       <c r="J18">
-        <v>324416.40625</v>
+        <v>287741.9375</v>
       </c>
       <c r="K18">
-        <v>287741.9375</v>
+        <v>351293.46875</v>
       </c>
       <c r="L18">
-        <v>351293.46875</v>
+        <v>56174.33604527057</v>
       </c>
       <c r="M18">
-        <v>56174.33604527057</v>
+        <v>64385.54943278945</v>
       </c>
       <c r="N18">
-        <v>64385.54943278945</v>
+        <v>3466320.25</v>
       </c>
       <c r="O18">
         <v>70768.21918737948</v>
@@ -1834,28 +1834,28 @@
         <v>324369.9375</v>
       </c>
       <c r="G19">
-        <v>2315344.5</v>
+        <v>4592.58837890625</v>
       </c>
       <c r="H19">
-        <v>4592.58837890625</v>
+        <v>371695.6875</v>
       </c>
       <c r="I19">
-        <v>371695.6875</v>
+        <v>447176.78125</v>
       </c>
       <c r="J19">
-        <v>447176.78125</v>
+        <v>333108.75</v>
       </c>
       <c r="K19">
-        <v>333108.75</v>
+        <v>441901.4375</v>
       </c>
       <c r="L19">
-        <v>441901.4375</v>
+        <v>107602.4591437413</v>
       </c>
       <c r="M19">
-        <v>107602.4591437413</v>
+        <v>142725.335</v>
       </c>
       <c r="N19">
-        <v>142725.335</v>
+        <v>3823319.5</v>
       </c>
       <c r="O19">
         <v>171882.9133425101</v>
@@ -1887,28 +1887,28 @@
         <v>369305.5</v>
       </c>
       <c r="G20">
-        <v>2566308.75</v>
+        <v>7177.32080078125</v>
       </c>
       <c r="H20">
-        <v>7177.32080078125</v>
+        <v>473742.5625</v>
       </c>
       <c r="I20">
-        <v>473742.5625</v>
+        <v>411308.125</v>
       </c>
       <c r="J20">
-        <v>411308.125</v>
+        <v>316019.3125</v>
       </c>
       <c r="K20">
-        <v>316019.3125</v>
+        <v>437129.46875</v>
       </c>
       <c r="L20">
-        <v>437129.46875</v>
+        <v>92304.47041717972</v>
       </c>
       <c r="M20">
-        <v>92304.47041717972</v>
+        <v>13987.59193650794</v>
       </c>
       <c r="N20">
-        <v>13987.59193650794</v>
+        <v>4382111</v>
       </c>
       <c r="O20">
         <v>1186.048843117853</v>
@@ -1940,28 +1940,28 @@
         <v>345583.53125</v>
       </c>
       <c r="G21">
-        <v>2647053</v>
+        <v>13850.7578125</v>
       </c>
       <c r="H21">
-        <v>13850.7578125</v>
+        <v>474751.75</v>
       </c>
       <c r="I21">
-        <v>474751.75</v>
+        <v>449899.09375</v>
       </c>
       <c r="J21">
-        <v>449899.09375</v>
+        <v>232749.109375</v>
       </c>
       <c r="K21">
-        <v>232749.109375</v>
+        <v>477829.5625</v>
       </c>
       <c r="L21">
-        <v>477829.5625</v>
+        <v>65078.18678217099</v>
       </c>
       <c r="M21">
-        <v>65078.18678217099</v>
+        <v>90662.35451803749</v>
       </c>
       <c r="N21">
-        <v>90662.35451803749</v>
+        <v>4667107</v>
       </c>
       <c r="O21">
         <v>85185.68966818415</v>
@@ -1993,28 +1993,28 @@
         <v>299880.625</v>
       </c>
       <c r="G22">
-        <v>2811137.75</v>
+        <v>17185.837890625</v>
       </c>
       <c r="H22">
-        <v>17185.837890625</v>
+        <v>524075.625</v>
       </c>
       <c r="I22">
-        <v>524075.625</v>
+        <v>451573.34375</v>
       </c>
       <c r="J22">
-        <v>451573.34375</v>
+        <v>287619.375</v>
       </c>
       <c r="K22">
-        <v>287619.375</v>
+        <v>466400.90625</v>
       </c>
       <c r="L22">
-        <v>466400.90625</v>
+        <v>36816.17834227146</v>
       </c>
       <c r="M22">
-        <v>36816.17834227146</v>
+        <v>79744.96530412644</v>
       </c>
       <c r="N22">
-        <v>79744.96530412644</v>
+        <v>4870011.5</v>
       </c>
       <c r="O22">
         <v>74219.44622398583</v>
@@ -2046,28 +2046,28 @@
         <v>396609.59375</v>
       </c>
       <c r="G23">
-        <v>2986100</v>
+        <v>29064.240234375</v>
       </c>
       <c r="H23">
-        <v>29064.240234375</v>
+        <v>511099.0625</v>
       </c>
       <c r="I23">
-        <v>511099.0625</v>
+        <v>421879.125</v>
       </c>
       <c r="J23">
-        <v>421879.125</v>
+        <v>213969.21875</v>
       </c>
       <c r="K23">
-        <v>213969.21875</v>
+        <v>532103.3125</v>
       </c>
       <c r="L23">
-        <v>532103.3125</v>
+        <v>110170.0952771457</v>
       </c>
       <c r="M23">
-        <v>110170.0952771457</v>
+        <v>130642.9885714286</v>
       </c>
       <c r="N23">
-        <v>130642.9885714286</v>
+        <v>5077436</v>
       </c>
       <c r="O23">
         <v>136184.2434506005</v>
@@ -2099,28 +2099,28 @@
         <v>379343.90625</v>
       </c>
       <c r="G24">
-        <v>3077165.75</v>
+        <v>3611.817138671875</v>
       </c>
       <c r="H24">
-        <v>3611.817138671875</v>
+        <v>591242.5</v>
       </c>
       <c r="I24">
-        <v>591242.5</v>
+        <v>530181.5</v>
       </c>
       <c r="J24">
-        <v>530181.5</v>
+        <v>277660.65625</v>
       </c>
       <c r="K24">
-        <v>277660.65625</v>
+        <v>561468.0625</v>
       </c>
       <c r="L24">
-        <v>561468.0625</v>
+        <v>119283.5673082223</v>
       </c>
       <c r="M24">
-        <v>119283.5673082223</v>
+        <v>273880.1503333334</v>
       </c>
       <c r="N24">
-        <v>273880.1503333334</v>
+        <v>4972384.5</v>
       </c>
       <c r="O24">
         <v>268176.8208604041</v>
@@ -2152,28 +2152,28 @@
         <v>359393.5</v>
       </c>
       <c r="G25">
-        <v>3232662.25</v>
+        <v>5517.4658203125</v>
       </c>
       <c r="H25">
-        <v>5517.4658203125</v>
+        <v>645261.625</v>
       </c>
       <c r="I25">
-        <v>645261.625</v>
+        <v>619903</v>
       </c>
       <c r="J25">
-        <v>619903</v>
+        <v>269985.75</v>
       </c>
       <c r="K25">
-        <v>269985.75</v>
+        <v>649633.5</v>
       </c>
       <c r="L25">
-        <v>649633.5</v>
+        <v>145834.5128115442</v>
       </c>
       <c r="M25">
-        <v>145834.5128115442</v>
+        <v>180154.0113333333</v>
       </c>
       <c r="N25">
-        <v>180154.0113333333</v>
+        <v>5200407.5</v>
       </c>
       <c r="O25">
         <v>194848.8107510949</v>
@@ -2205,28 +2205,28 @@
         <v>349127.375</v>
       </c>
       <c r="G26">
-        <v>3751322</v>
+        <v>3858.27783203125</v>
       </c>
       <c r="H26">
-        <v>3858.27783203125</v>
+        <v>554086.8125</v>
       </c>
       <c r="I26">
-        <v>554086.8125</v>
+        <v>557560.375</v>
       </c>
       <c r="J26">
-        <v>557560.375</v>
+        <v>177724.09375</v>
       </c>
       <c r="K26">
-        <v>177724.09375</v>
+        <v>596144.9375</v>
       </c>
       <c r="L26">
-        <v>596144.9375</v>
+        <v>82307.5356845565</v>
       </c>
       <c r="M26">
-        <v>82307.5356845565</v>
+        <v>94211.21252886001</v>
       </c>
       <c r="N26">
-        <v>94211.21252886001</v>
+        <v>6184762.5</v>
       </c>
       <c r="O26">
         <v>91122.8238470458</v>
@@ -2258,28 +2258,28 @@
         <v>309997.71875</v>
       </c>
       <c r="G27">
-        <v>4367396</v>
+        <v>21937.541015625</v>
       </c>
       <c r="H27">
-        <v>21937.541015625</v>
+        <v>599341.0625</v>
       </c>
       <c r="I27">
-        <v>599341.0625</v>
+        <v>586809.8125</v>
       </c>
       <c r="J27">
-        <v>586809.8125</v>
+        <v>239476.8125</v>
       </c>
       <c r="K27">
-        <v>239476.8125</v>
+        <v>636010.375</v>
       </c>
       <c r="L27">
-        <v>636010.375</v>
+        <v>80594.15275537813</v>
       </c>
       <c r="M27">
-        <v>80594.15275537813</v>
+        <v>48092.623</v>
       </c>
       <c r="N27">
-        <v>48092.623</v>
+        <v>7361428</v>
       </c>
       <c r="O27">
         <v>4825.360302785557</v>
@@ -2311,28 +2311,28 @@
         <v>149415.109375</v>
       </c>
       <c r="G28">
-        <v>4412115.5</v>
+        <v>12925.7001953125</v>
       </c>
       <c r="H28">
-        <v>12925.7001953125</v>
+        <v>654694.6875</v>
       </c>
       <c r="I28">
-        <v>654694.6875</v>
+        <v>627045.6875</v>
       </c>
       <c r="J28">
-        <v>627045.6875</v>
+        <v>190783.515625</v>
       </c>
       <c r="K28">
-        <v>190783.515625</v>
+        <v>692789.6875</v>
       </c>
       <c r="L28">
-        <v>692789.6875</v>
+        <v>68417.87894695351</v>
       </c>
       <c r="M28">
-        <v>68417.87894695351</v>
+        <v>13208.48988797314</v>
       </c>
       <c r="N28">
-        <v>13208.48988797314</v>
+        <v>7864625.5</v>
       </c>
       <c r="O28">
         <v>7864.214931780996</v>
@@ -2364,28 +2364,28 @@
         <v>301833.75</v>
       </c>
       <c r="G29">
-        <v>4311200</v>
+        <v>51589.53125</v>
       </c>
       <c r="H29">
-        <v>51589.53125</v>
+        <v>579356.5</v>
       </c>
       <c r="I29">
-        <v>579356.5</v>
+        <v>583120.75</v>
       </c>
       <c r="J29">
-        <v>583120.75</v>
+        <v>196579.703125</v>
       </c>
       <c r="K29">
-        <v>196579.703125</v>
+        <v>656360.125</v>
       </c>
       <c r="L29">
-        <v>656360.125</v>
+        <v>87681.86670354029</v>
       </c>
       <c r="M29">
-        <v>87681.86670354029</v>
+        <v>16179.1848994339</v>
       </c>
       <c r="N29">
-        <v>16179.1848994339</v>
+        <v>7842120.5</v>
       </c>
       <c r="O29">
         <v>2599.791724724244</v>
@@ -2417,28 +2417,28 @@
         <v>118473.21875</v>
       </c>
       <c r="G30">
-        <v>4441216.5</v>
+        <v>56989.00390625</v>
       </c>
       <c r="H30">
-        <v>56989.00390625</v>
+        <v>655614.4375</v>
       </c>
       <c r="I30">
-        <v>655614.4375</v>
+        <v>608049.3125</v>
       </c>
       <c r="J30">
-        <v>608049.3125</v>
+        <v>265722.4375</v>
       </c>
       <c r="K30">
-        <v>265722.4375</v>
+        <v>805420.0625</v>
       </c>
       <c r="L30">
-        <v>805420.0625</v>
+        <v>56174.33604527057</v>
       </c>
       <c r="M30">
-        <v>56174.33604527057</v>
+        <v>11982.6775</v>
       </c>
       <c r="N30">
-        <v>11982.6775</v>
+        <v>7709330</v>
       </c>
       <c r="O30">
         <v>234.8591650852031</v>
@@ -2470,28 +2470,28 @@
         <v>269933.75</v>
       </c>
       <c r="G31">
-        <v>4679445</v>
+        <v>212077.828125</v>
       </c>
       <c r="H31">
-        <v>212077.828125</v>
+        <v>604439.75</v>
       </c>
       <c r="I31">
-        <v>604439.75</v>
+        <v>662964.9375</v>
       </c>
       <c r="J31">
-        <v>662964.9375</v>
+        <v>208796.8125</v>
       </c>
       <c r="K31">
-        <v>208796.8125</v>
+        <v>616562.8125</v>
       </c>
       <c r="L31">
-        <v>616562.8125</v>
+        <v>82307.5356845565</v>
       </c>
       <c r="M31">
-        <v>82307.5356845565</v>
+        <v>94211.21252886001</v>
       </c>
       <c r="N31">
-        <v>94211.21252886001</v>
+        <v>7582068.5</v>
       </c>
       <c r="O31">
         <v>91122.8238470458</v>
@@ -2523,28 +2523,28 @@
         <v>109169.8515625</v>
       </c>
       <c r="G32">
-        <v>5277074.5</v>
+        <v>271310.375</v>
       </c>
       <c r="H32">
-        <v>271310.375</v>
+        <v>584243.4375</v>
       </c>
       <c r="I32">
-        <v>584243.4375</v>
+        <v>438968.5</v>
       </c>
       <c r="J32">
-        <v>438968.5</v>
+        <v>144154.984375</v>
       </c>
       <c r="K32">
-        <v>144154.984375</v>
+        <v>735783.6875</v>
       </c>
       <c r="L32">
-        <v>735783.6875</v>
+        <v>110170.0952771457</v>
       </c>
       <c r="M32">
-        <v>110170.0952771457</v>
+        <v>130642.9885714286</v>
       </c>
       <c r="N32">
-        <v>130642.9885714286</v>
+        <v>8061582.5</v>
       </c>
       <c r="O32">
         <v>136184.2434506005</v>
@@ -2576,28 +2576,28 @@
         <v>119996.5546875</v>
       </c>
       <c r="G33">
-        <v>5976372.5</v>
+        <v>455506.125</v>
       </c>
       <c r="H33">
-        <v>455506.125</v>
+        <v>636750.9375</v>
       </c>
       <c r="I33">
-        <v>636750.9375</v>
+        <v>618917.875</v>
       </c>
       <c r="J33">
-        <v>618917.875</v>
+        <v>220479.515625</v>
       </c>
       <c r="K33">
-        <v>220479.515625</v>
+        <v>964393.875</v>
       </c>
       <c r="L33">
-        <v>964393.875</v>
+        <v>65078.18678217099</v>
       </c>
       <c r="M33">
-        <v>65078.18678217099</v>
+        <v>90662.35451803749</v>
       </c>
       <c r="N33">
-        <v>90662.35451803749</v>
+        <v>8917652</v>
       </c>
       <c r="O33">
         <v>85185.68966818415</v>
@@ -2629,28 +2629,28 @@
         <v>-16317.8505859375</v>
       </c>
       <c r="G34">
-        <v>6251963</v>
+        <v>709637.25</v>
       </c>
       <c r="H34">
-        <v>709637.25</v>
+        <v>742485.1875</v>
       </c>
       <c r="I34">
-        <v>742485.1875</v>
+        <v>549404.1875</v>
       </c>
       <c r="J34">
-        <v>549404.1875</v>
+        <v>289134.28125</v>
       </c>
       <c r="K34">
-        <v>289134.28125</v>
+        <v>749303.6875</v>
       </c>
       <c r="L34">
-        <v>749303.6875</v>
+        <v>87921.54369895517</v>
       </c>
       <c r="M34">
-        <v>87921.54369895517</v>
+        <v>91950.87008011669</v>
       </c>
       <c r="N34">
-        <v>91950.87008011669</v>
+        <v>9296939</v>
       </c>
       <c r="O34">
         <v>85836.10113750568</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>9311033645.456238</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>11010481953.23938</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>8769579273.954794</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>10550617928.953</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>15924171545.60551</v>
@@ -2882,28 +2882,28 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>63281255214.15629</v>
+        <v>55124879739.93095</v>
       </c>
       <c r="C9">
-        <v>251557.6578324665</v>
+        <v>234786.8815328722</v>
       </c>
       <c r="D9">
-        <v>0.6749096713658383</v>
+        <v>0.6582289453318404</v>
       </c>
       <c r="E9">
-        <v>174054.1875</v>
+        <v>188544.8732096354</v>
       </c>
       <c r="F9">
-        <v>0.5691394005830143</v>
+        <v>0.6637941528845445</v>
       </c>
       <c r="G9">
-        <v>91613.0390625</v>
+        <v>134488.734375</v>
       </c>
       <c r="H9">
-        <v>0.3285226553269746</v>
+        <v>0.5046508795213619</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2934,7 +2934,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>73936742174.44229</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>78835481582.90651</v>
@@ -3089,34 +3089,34 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -3160,7 +3160,7 @@
         <v>140844.125</v>
       </c>
       <c r="K2">
-        <v>212684.078125</v>
+        <v>574098.6875</v>
       </c>
       <c r="L2">
         <v>17175.771484375</v>
@@ -3213,7 +3213,7 @@
         <v>176782.40625</v>
       </c>
       <c r="K3">
-        <v>192815.734375</v>
+        <v>531793.0625</v>
       </c>
       <c r="L3">
         <v>87255.4921875</v>
@@ -3266,7 +3266,7 @@
         <v>217336.84375</v>
       </c>
       <c r="K4">
-        <v>203832.09375</v>
+        <v>412519.375</v>
       </c>
       <c r="L4">
         <v>17443.666015625</v>
@@ -3319,7 +3319,7 @@
         <v>223132.890625</v>
       </c>
       <c r="K5">
-        <v>245540.25</v>
+        <v>232375.71875</v>
       </c>
       <c r="L5">
         <v>17175.771484375</v>
@@ -3372,7 +3372,7 @@
         <v>181506.875</v>
       </c>
       <c r="K6">
-        <v>325060.84375</v>
+        <v>126151.9296875</v>
       </c>
       <c r="L6">
         <v>47946.57421875</v>
@@ -3425,7 +3425,7 @@
         <v>198984.09375</v>
       </c>
       <c r="K7">
-        <v>373613.15625</v>
+        <v>33865.31640625</v>
       </c>
       <c r="L7">
         <v>-867.3833618164062</v>
@@ -3478,7 +3478,7 @@
         <v>285453.96875</v>
       </c>
       <c r="K8">
-        <v>404318.21875</v>
+        <v>23770.041015625</v>
       </c>
       <c r="L8">
         <v>17443.666015625</v>
@@ -3531,7 +3531,7 @@
         <v>208750.8125</v>
       </c>
       <c r="K9">
-        <v>401738.0625</v>
+        <v>167066.359375</v>
       </c>
       <c r="L9">
         <v>47946.57421875</v>
@@ -3584,7 +3584,7 @@
         <v>262476.4375</v>
       </c>
       <c r="K10">
-        <v>287215.96875</v>
+        <v>195935.90625</v>
       </c>
       <c r="L10">
         <v>93781.6484375</v>
@@ -3637,7 +3637,7 @@
         <v>198991.015625</v>
       </c>
       <c r="K11">
-        <v>287806.34375</v>
+        <v>305485.5625</v>
       </c>
       <c r="L11">
         <v>47946.57421875</v>
@@ -3690,7 +3690,7 @@
         <v>189197.625</v>
       </c>
       <c r="K12">
-        <v>687827.4375</v>
+        <v>588304</v>
       </c>
       <c r="L12">
         <v>124596.4921875</v>
@@ -3743,7 +3743,7 @@
         <v>210810.75</v>
       </c>
       <c r="K13">
-        <v>947989.3125</v>
+        <v>843294.0625</v>
       </c>
       <c r="L13">
         <v>-0.0001103652029996738</v>
@@ -3796,7 +3796,7 @@
         <v>206693.53125</v>
       </c>
       <c r="K14">
-        <v>619253.125</v>
+        <v>875785.5625</v>
       </c>
       <c r="L14">
         <v>47946.57421875</v>
@@ -3849,7 +3849,7 @@
         <v>158348.71875</v>
       </c>
       <c r="K15">
-        <v>349602.25</v>
+        <v>867249.625</v>
       </c>
       <c r="L15">
         <v>3869.2529296875</v>
@@ -3902,7 +3902,7 @@
         <v>135270.765625</v>
       </c>
       <c r="K16">
-        <v>511631.9375</v>
+        <v>1064859.75</v>
       </c>
       <c r="L16">
         <v>17175.771484375</v>
@@ -3955,7 +3955,7 @@
         <v>159849.96875</v>
       </c>
       <c r="K17">
-        <v>744577.1875</v>
+        <v>988911.3125</v>
       </c>
       <c r="L17">
         <v>47946.57421875</v>
@@ -4008,7 +4008,7 @@
         <v>176548.65625</v>
       </c>
       <c r="K18">
-        <v>1061874.875</v>
+        <v>1101083.125</v>
       </c>
       <c r="L18">
         <v>17175.771484375</v>
@@ -4061,7 +4061,7 @@
         <v>156447.125</v>
       </c>
       <c r="K19">
-        <v>1370452.375</v>
+        <v>832130.3125</v>
       </c>
       <c r="L19">
         <v>17443.666015625</v>
@@ -4114,7 +4114,7 @@
         <v>154546.125</v>
       </c>
       <c r="K20">
-        <v>1520688.75</v>
+        <v>1379859.25</v>
       </c>
       <c r="L20">
         <v>47946.57421875</v>
@@ -4167,7 +4167,7 @@
         <v>151969.703125</v>
       </c>
       <c r="K21">
-        <v>1606269.875</v>
+        <v>1731565.75</v>
       </c>
       <c r="L21">
         <v>17175.771484375</v>
@@ -4220,7 +4220,7 @@
         <v>229889.515625</v>
       </c>
       <c r="K22">
-        <v>2161138.25</v>
+        <v>1761170.375</v>
       </c>
       <c r="L22">
         <v>17443.666015625</v>
@@ -4273,7 +4273,7 @@
         <v>251049.296875</v>
       </c>
       <c r="K23">
-        <v>2745384.75</v>
+        <v>2269155.25</v>
       </c>
       <c r="L23">
         <v>17443.666015625</v>
@@ -4326,7 +4326,7 @@
         <v>259536.40625</v>
       </c>
       <c r="K24">
-        <v>2928061.5</v>
+        <v>2667445</v>
       </c>
       <c r="L24">
         <v>47946.57421875</v>
@@ -4379,7 +4379,7 @@
         <v>301520.46875</v>
       </c>
       <c r="K25">
-        <v>3206223.5</v>
+        <v>2570015.5</v>
       </c>
       <c r="L25">
         <v>93232.3671875</v>
@@ -4432,7 +4432,7 @@
         <v>320801.625</v>
       </c>
       <c r="K26">
-        <v>3570652.5</v>
+        <v>3444880.75</v>
       </c>
       <c r="L26">
         <v>47946.57421875</v>
@@ -4485,7 +4485,7 @@
         <v>360501.90625</v>
       </c>
       <c r="K27">
-        <v>3937074</v>
+        <v>3722357.25</v>
       </c>
       <c r="L27">
         <v>17175.771484375</v>
@@ -4538,7 +4538,7 @@
         <v>370387.78125</v>
       </c>
       <c r="K28">
-        <v>3985157.25</v>
+        <v>3766072</v>
       </c>
       <c r="L28">
         <v>3869.2529296875</v>
@@ -4591,7 +4591,7 @@
         <v>363945.4375</v>
       </c>
       <c r="K29">
-        <v>4041629.25</v>
+        <v>4331748</v>
       </c>
       <c r="L29">
         <v>47946.57421875</v>
@@ -4644,7 +4644,7 @@
         <v>357227.84375</v>
       </c>
       <c r="K30">
-        <v>4666914</v>
+        <v>4696875</v>
       </c>
       <c r="L30">
         <v>-0.0001103652029996738</v>
@@ -4697,7 +4697,7 @@
         <v>431881</v>
       </c>
       <c r="K31">
-        <v>5550977.5</v>
+        <v>5647312</v>
       </c>
       <c r="L31">
         <v>47946.57421875</v>
@@ -4750,7 +4750,7 @@
         <v>393583.59375</v>
       </c>
       <c r="K32">
-        <v>6232790</v>
+        <v>6225227</v>
       </c>
       <c r="L32">
         <v>13.33463096618652</v>
@@ -4803,7 +4803,7 @@
         <v>551179</v>
       </c>
       <c r="K33">
-        <v>6537184</v>
+        <v>6535962.5</v>
       </c>
       <c r="L33">
         <v>17175.771484375</v>
@@ -4856,7 +4856,7 @@
         <v>542963.4375</v>
       </c>
       <c r="K34">
-        <v>6564583.5</v>
+        <v>6603322</v>
       </c>
       <c r="L34">
         <v>47946.57421875</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>33933885655.04655</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>37690005140.17776</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>34182526667.45855</v>
@@ -5045,210 +5045,210 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>38299489869.50344</v>
+        <v>52417629938.53573</v>
       </c>
       <c r="C7">
-        <v>195702.554580934</v>
+        <v>228948.9679787522</v>
       </c>
       <c r="D7">
-        <v>0.2410530477325552</v>
+        <v>0.3863218916478893</v>
       </c>
       <c r="E7">
-        <v>166993.1595052083</v>
+        <v>176756.1354166667</v>
       </c>
       <c r="F7">
-        <v>0.4792985862492491</v>
+        <v>0.5130768992712655</v>
       </c>
       <c r="G7">
-        <v>133518.03125</v>
+        <v>120921.8515625</v>
       </c>
       <c r="H7">
-        <v>0.4671180632515541</v>
+        <v>0.429765259941676</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>41950739560.74258</v>
+        <v>38299489869.50344</v>
       </c>
       <c r="C8">
-        <v>204818.7968931137</v>
+        <v>195702.554580934</v>
       </c>
       <c r="D8">
-        <v>0.2557135798882624</v>
+        <v>0.2410530477325552</v>
       </c>
       <c r="E8">
-        <v>171653.900390625</v>
+        <v>166993.1595052083</v>
       </c>
       <c r="F8">
-        <v>0.489160109177004</v>
+        <v>0.4792985862492491</v>
       </c>
       <c r="G8">
-        <v>150225.78125</v>
+        <v>133518.03125</v>
       </c>
       <c r="H8">
-        <v>0.5079754354271587</v>
+        <v>0.4671180632515541</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>95821187144.75378</v>
+        <v>41950739560.74258</v>
       </c>
       <c r="C9">
-        <v>309549.9751974692</v>
+        <v>204818.7968931137</v>
       </c>
       <c r="D9">
-        <v>0.7741063798637723</v>
+        <v>0.2557135798882624</v>
       </c>
       <c r="E9">
-        <v>291184.850484566</v>
+        <v>171653.900390625</v>
       </c>
       <c r="F9">
-        <v>0.8766523831960681</v>
+        <v>0.489160109177004</v>
       </c>
       <c r="G9">
-        <v>268353.0647736827</v>
+        <v>150225.78125</v>
       </c>
       <c r="H9">
-        <v>0.8566500010341467</v>
+        <v>0.5079754354271587</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>94863155279.52361</v>
+        <v>95821187144.75378</v>
       </c>
       <c r="C10">
-        <v>307998.6286974726</v>
+        <v>309549.9751974692</v>
       </c>
       <c r="D10">
-        <v>0.7565672642363895</v>
+        <v>0.7741063798637723</v>
       </c>
       <c r="E10">
-        <v>289135.9638270825</v>
+        <v>291184.850484566</v>
       </c>
       <c r="F10">
-        <v>0.8683665439504349</v>
+        <v>0.8766523831960681</v>
       </c>
       <c r="G10">
-        <v>262880.0584843064</v>
+        <v>268353.0647736827</v>
       </c>
       <c r="H10">
-        <v>0.8654419066231005</v>
+        <v>0.8566500010341467</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>96819238747.43153</v>
+        <v>94863155279.52361</v>
       </c>
       <c r="C11">
-        <v>311157.9000241381</v>
+        <v>307998.6286974726</v>
       </c>
       <c r="D11">
-        <v>0.7837495471330569</v>
+        <v>0.7565672642363895</v>
       </c>
       <c r="E11">
-        <v>292782.5996700166</v>
+        <v>289135.9638270825</v>
       </c>
       <c r="F11">
-        <v>0.8816186213657211</v>
+        <v>0.8683665439504349</v>
       </c>
       <c r="G11">
-        <v>268315.423828125</v>
+        <v>262880.0584843064</v>
       </c>
       <c r="H11">
-        <v>0.8567028746289769</v>
+        <v>0.8654419066231005</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>96472560558.72404</v>
+        <v>96819238747.43153</v>
       </c>
       <c r="C12">
-        <v>310600.3228567608</v>
+        <v>311157.9000241381</v>
       </c>
       <c r="D12">
-        <v>0.7835993633377787</v>
+        <v>0.7837495471330569</v>
       </c>
       <c r="E12">
-        <v>292712.4448686925</v>
+        <v>292782.5996700166</v>
       </c>
       <c r="F12">
-        <v>0.8820700983753486</v>
+        <v>0.8816186213657211</v>
       </c>
       <c r="G12">
-        <v>269039.1078503163</v>
+        <v>268315.423828125</v>
       </c>
       <c r="H12">
-        <v>0.8689364635037147</v>
+        <v>0.8567028746289769</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>97797812495.75377</v>
+        <v>96472560558.72404</v>
       </c>
       <c r="C13">
-        <v>312726.4179690513</v>
+        <v>310600.3228567608</v>
       </c>
       <c r="D13">
-        <v>1.04873454641463</v>
+        <v>0.7835993633377787</v>
       </c>
       <c r="E13">
-        <v>290794.69921875</v>
+        <v>292712.4448686925</v>
       </c>
       <c r="F13">
-        <v>0.922056813396531</v>
+        <v>0.8820700983753486</v>
       </c>
       <c r="G13">
-        <v>269212.125</v>
+        <v>269039.1078503163</v>
       </c>
       <c r="H13">
-        <v>0.8448859029904434</v>
+        <v>0.8689364635037147</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>249662495199.4384</v>
+        <v>97797812495.75377</v>
       </c>
       <c r="C14">
-        <v>499662.381212993</v>
+        <v>312726.4179690513</v>
       </c>
       <c r="D14">
-        <v>2.718234508298634</v>
+        <v>1.04873454641463</v>
       </c>
       <c r="E14">
-        <v>393670.3753255208</v>
+        <v>290794.69921875</v>
       </c>
       <c r="F14">
-        <v>1.256630409515042</v>
+        <v>0.922056813396531</v>
       </c>
       <c r="G14">
-        <v>362498.994140625</v>
+        <v>269212.125</v>
       </c>
       <c r="H14">
-        <v>0.8392304547371828</v>
+        <v>0.8448859029904434</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5307,37 +5307,37 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
@@ -5369,28 +5369,28 @@
         <v>191263.234375</v>
       </c>
       <c r="I2">
+        <v>151069.421875</v>
+      </c>
+      <c r="J2">
         <v>133820.90625</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>182682.671875</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>52629.39965911176</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>48889.56460206227</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>52628.421875</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>50912.50268977389</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>380924.3125</v>
-      </c>
-      <c r="P2">
-        <v>348733.625</v>
       </c>
       <c r="Q2">
         <v>1528667.5</v>
@@ -5422,28 +5422,28 @@
         <v>205465.65625</v>
       </c>
       <c r="I3">
+        <v>145898.484375</v>
+      </c>
+      <c r="J3">
         <v>200277.453125</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>166415.609375</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>62818.23994872315</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>58967.53195235646</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>62824.4921875</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>66171.72629936732</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>309507.09375</v>
-      </c>
-      <c r="P3">
-        <v>311454.25</v>
       </c>
       <c r="Q3">
         <v>-362374.40625</v>
@@ -5475,28 +5475,28 @@
         <v>247164.21875</v>
       </c>
       <c r="I4">
+        <v>170239.875</v>
+      </c>
+      <c r="J4">
         <v>181962.65625</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>204390.46875</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>40997.84494167498</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>32264.35107903058</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>40960.56640625</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>37222.60897835496</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>570423.5</v>
-      </c>
-      <c r="P4">
-        <v>181024.421875</v>
       </c>
       <c r="Q4">
         <v>-57280.0625</v>
@@ -5528,28 +5528,28 @@
         <v>193335.625</v>
       </c>
       <c r="I5">
+        <v>204202.234375</v>
+      </c>
+      <c r="J5">
         <v>185816.359375</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>156561.140625</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>42854.25917718716</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>46337.47899174029</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>42860.2265625</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>39438.05353010018</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>115271.859375</v>
-      </c>
-      <c r="P5">
-        <v>171188.53125</v>
       </c>
       <c r="Q5">
         <v>265324.5625</v>
@@ -5581,28 +5581,28 @@
         <v>208662.75</v>
       </c>
       <c r="I6">
+        <v>234928.78125</v>
+      </c>
+      <c r="J6">
         <v>137934.546875</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>151753.421875</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>62818.23994872315</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>58967.53195235646</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>62824.4921875</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>66171.72629936732</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>83339.90625</v>
-      </c>
-      <c r="P6">
-        <v>433253</v>
       </c>
       <c r="Q6">
         <v>1267.918823242188</v>
@@ -5634,28 +5634,28 @@
         <v>208264.921875</v>
       </c>
       <c r="I7">
+        <v>260050.921875</v>
+      </c>
+      <c r="J7">
         <v>181646.75</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>176584.859375</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>16.08989702114923</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>22377.328248619</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.0005579670541919768</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2681.058</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>508256.28125</v>
-      </c>
-      <c r="P7">
-        <v>400825.96875</v>
       </c>
       <c r="Q7">
         <v>965261.8125</v>
@@ -5687,28 +5687,28 @@
         <v>191213.890625</v>
       </c>
       <c r="I8">
+        <v>290000.03125</v>
+      </c>
+      <c r="J8">
         <v>195111.859375</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>198292.75</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>19147.03765968383</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>58967.53195235646</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-77.79592895507812</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>8508.777709027083</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-74749.65625</v>
-      </c>
-      <c r="P8">
-        <v>-80082.5625</v>
       </c>
       <c r="Q8">
         <v>1367287</v>
@@ -5740,28 +5740,28 @@
         <v>187387.140625</v>
       </c>
       <c r="I9">
+        <v>369817.3125</v>
+      </c>
+      <c r="J9">
         <v>118209.0390625</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>139261.296875</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>18716.15842882456</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>15579.33941442009</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>18717.826171875</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>18585.93896150975</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>34511.53125</v>
-      </c>
-      <c r="P9">
-        <v>-39664.23828125</v>
       </c>
       <c r="Q9">
         <v>519391.6875</v>
@@ -5793,28 +5793,28 @@
         <v>193141.609375</v>
       </c>
       <c r="I10">
+        <v>496514</v>
+      </c>
+      <c r="J10">
         <v>154619.03125</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>103624.3359375</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-11.74558748782874</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>22377.328248619</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-0.0002785862307064235</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>510065.25</v>
-      </c>
-      <c r="P10">
-        <v>693622.5625</v>
       </c>
       <c r="Q10">
         <v>953052.375</v>
@@ -5846,28 +5846,28 @@
         <v>136559.796875</v>
       </c>
       <c r="I11">
+        <v>587383.0625</v>
+      </c>
+      <c r="J11">
         <v>161265.296875</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>150132.484375</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>62818.23994872315</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>58967.53195235646</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>62824.4921875</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>66171.72629936732</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>51459.21875</v>
-      </c>
-      <c r="P11">
-        <v>1242059.625</v>
       </c>
       <c r="Q11">
         <v>264247.96875</v>
@@ -5899,28 +5899,28 @@
         <v>126552.5703125</v>
       </c>
       <c r="I12">
+        <v>557565.8125</v>
+      </c>
+      <c r="J12">
         <v>175198.171875</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>152686.078125</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>64829.63050391144</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>32264.35107903058</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>64898.66015625</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>55155.04011904761</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>4349.3125</v>
-      </c>
-      <c r="P12">
-        <v>1158463.375</v>
       </c>
       <c r="Q12">
         <v>559702.625</v>
@@ -5952,28 +5952,28 @@
         <v>108477.3828125</v>
       </c>
       <c r="I13">
+        <v>595680.1875</v>
+      </c>
+      <c r="J13">
         <v>144701.015625</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>132249.078125</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>52629.39965911176</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>48889.56460206227</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>52628.421875</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>50912.50268977389</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-319243.3125</v>
-      </c>
-      <c r="P13">
-        <v>1157923.75</v>
       </c>
       <c r="Q13">
         <v>-1003228.875</v>
@@ -6005,28 +6005,28 @@
         <v>78801.671875</v>
       </c>
       <c r="I14">
+        <v>708909.625</v>
+      </c>
+      <c r="J14">
         <v>112499.9453125</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>105919.8046875</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>76526.41542075547</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>58967.53195235646</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>76547.8046875</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>82411.11782861424</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-77898.25</v>
-      </c>
-      <c r="P14">
-        <v>947418.25</v>
       </c>
       <c r="Q14">
         <v>-849416.25</v>
@@ -6058,28 +6058,28 @@
         <v>32288.837890625</v>
       </c>
       <c r="I15">
+        <v>829399.1875</v>
+      </c>
+      <c r="J15">
         <v>138232.296875</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>87229.5</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>18602.22152580252</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>58967.53195235646</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>338.1966857910156</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>6924.128734668109</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>695932.625</v>
-      </c>
-      <c r="P15">
-        <v>876873.125</v>
       </c>
       <c r="Q15">
         <v>1011581.6875</v>
@@ -6111,28 +6111,28 @@
         <v>8287.015625</v>
       </c>
       <c r="I16">
+        <v>1022861.875</v>
+      </c>
+      <c r="J16">
         <v>91225.5234375</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>34189.8359375</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-11.74558748782874</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>22377.328248619</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-0.0002785862307064235</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>127778.1875</v>
-      </c>
-      <c r="P16">
-        <v>2120465.25</v>
       </c>
       <c r="Q16">
         <v>370914.375</v>
@@ -6164,28 +6164,28 @@
         <v>6772.26171875</v>
       </c>
       <c r="I17">
+        <v>1045070.3125</v>
+      </c>
+      <c r="J17">
         <v>95064.625</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>56370.05078125</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>80.48300002454926</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>15579.33941442009</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2.768541378372902E-07</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1729.496785714286</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-24588.21875</v>
-      </c>
-      <c r="P17">
-        <v>2763040.75</v>
       </c>
       <c r="Q17">
         <v>938265.5</v>
@@ -6217,28 +6217,28 @@
         <v>27437.1953125</v>
       </c>
       <c r="I18">
+        <v>1034754.1875</v>
+      </c>
+      <c r="J18">
         <v>147021.265625</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>84517.71875</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>40997.84494167498</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>32264.35107903058</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>40960.56640625</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>37222.60897835496</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>174034.96875</v>
-      </c>
-      <c r="P18">
-        <v>2816663.75</v>
       </c>
       <c r="Q18">
         <v>70922.546875</v>
@@ -6270,28 +6270,28 @@
         <v>5444.267578125</v>
       </c>
       <c r="I19">
+        <v>1018133.25</v>
+      </c>
+      <c r="J19">
         <v>130738.9140625</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>67043.859375</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-1609.57015224982</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>32264.35107903058</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-1135.36669921875</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1356.9075</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>163104.1875</v>
-      </c>
-      <c r="P19">
-        <v>2870287</v>
       </c>
       <c r="Q19">
         <v>312885.03125</v>
@@ -6323,28 +6323,28 @@
         <v>8608.099609375</v>
       </c>
       <c r="I20">
+        <v>1133024</v>
+      </c>
+      <c r="J20">
         <v>163557.171875</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>113432.515625</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1.558196383346512</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>58967.53195235646</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2.64285863522673E-05</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>766.515</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>288248.59375</v>
-      </c>
-      <c r="P20">
-        <v>3508570.5</v>
       </c>
       <c r="Q20">
         <v>1729376.625</v>
@@ -6376,28 +6376,28 @@
         <v>5556.6455078125</v>
       </c>
       <c r="I21">
+        <v>1405327.375</v>
+      </c>
+      <c r="J21">
         <v>165971.703125</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>107228.9921875</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>52629.39965911176</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>48889.56460206227</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>52628.421875</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>50912.50268977389</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>120723.515625</v>
-      </c>
-      <c r="P21">
-        <v>4556557.5</v>
       </c>
       <c r="Q21">
         <v>1809840.25</v>
@@ -6429,28 +6429,28 @@
         <v>38200.91015625</v>
       </c>
       <c r="I22">
+        <v>1724394.625</v>
+      </c>
+      <c r="J22">
         <v>221168</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>189939.125</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>76526.41542075547</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>58967.53195235646</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>76547.8046875</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>82411.11782861424</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>485982.84375</v>
-      </c>
-      <c r="P22">
-        <v>5162801</v>
       </c>
       <c r="Q22">
         <v>839540.4375</v>
@@ -6482,28 +6482,28 @@
         <v>3892.33935546875</v>
       </c>
       <c r="I23">
+        <v>2044829</v>
+      </c>
+      <c r="J23">
         <v>243773.609375</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>239613.34375</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>27.97115007411776</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>58967.53195235646</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-1.034033266478218E-05</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>7892.24</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>210166.859375</v>
-      </c>
-      <c r="P23">
-        <v>5720652.5</v>
       </c>
       <c r="Q23">
         <v>2707478.75</v>
@@ -6535,28 +6535,28 @@
         <v>9511.5146484375</v>
       </c>
       <c r="I24">
+        <v>2031988.375</v>
+      </c>
+      <c r="J24">
         <v>230942.1875</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>291069.09375</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>52629.39965911176</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>48889.56460206227</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>52628.421875</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>50912.50268977389</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-150188.96875</v>
-      </c>
-      <c r="P24">
-        <v>6011004.5</v>
       </c>
       <c r="Q24">
         <v>2402083.25</v>
@@ -6588,28 +6588,28 @@
         <v>32365.3359375</v>
       </c>
       <c r="I25">
+        <v>2054557.75</v>
+      </c>
+      <c r="J25">
         <v>231199.234375</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>249469.484375</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>40997.84494167498</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>32264.35107903058</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>40960.56640625</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>37222.60897835496</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>56311.984375</v>
-      </c>
-      <c r="P25">
-        <v>6308400</v>
       </c>
       <c r="Q25">
         <v>2039177.625</v>
@@ -6641,28 +6641,28 @@
         <v>36432.2890625</v>
       </c>
       <c r="I26">
+        <v>2526197.5</v>
+      </c>
+      <c r="J26">
         <v>191141.71875</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>257572.03125</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>18716.15842882456</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>15579.33941442009</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>18717.826171875</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>18585.93896150975</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>514734.78125</v>
-      </c>
-      <c r="P26">
-        <v>7196900</v>
       </c>
       <c r="Q26">
         <v>2690333</v>
@@ -6694,28 +6694,28 @@
         <v>33453.23828125</v>
       </c>
       <c r="I27">
+        <v>3099885</v>
+      </c>
+      <c r="J27">
         <v>207521.765625</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>288548.65625</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5817.541429395009</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>32264.35107903058</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-516.5509033203125</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>2684.055222222222</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>74808.984375</v>
-      </c>
-      <c r="P27">
-        <v>8247254</v>
       </c>
       <c r="Q27">
         <v>3578966.5</v>
@@ -6747,28 +6747,28 @@
         <v>68794.140625</v>
       </c>
       <c r="I28">
+        <v>3390469.25</v>
+      </c>
+      <c r="J28">
         <v>240309.59375</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>262176.25</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>42854.25917718716</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>46337.47899174029</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>42860.2265625</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>39438.05353010018</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>486647.9375</v>
-      </c>
-      <c r="P28">
-        <v>8710004</v>
       </c>
       <c r="Q28">
         <v>1692808</v>
@@ -6800,28 +6800,28 @@
         <v>169725.625</v>
       </c>
       <c r="I29">
+        <v>3475840.25</v>
+      </c>
+      <c r="J29">
         <v>131699.953125</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>234873.171875</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>80.48300002454926</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>15579.33941442009</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2.768541378372902E-07</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1729.496785714286</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>113969.234375</v>
-      </c>
-      <c r="P29">
-        <v>9016528</v>
       </c>
       <c r="Q29">
         <v>2302938.5</v>
@@ -6853,28 +6853,28 @@
         <v>245844.515625</v>
       </c>
       <c r="I30">
+        <v>3531679.5</v>
+      </c>
+      <c r="J30">
         <v>251026.96875</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>246554.015625</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>52629.39965911176</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>48889.56460206227</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>52628.421875</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>50912.50268977389</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>173708.59375</v>
-      </c>
-      <c r="P30">
-        <v>9073426</v>
       </c>
       <c r="Q30">
         <v>2985876.5</v>
@@ -6906,28 +6906,28 @@
         <v>268561.28125</v>
       </c>
       <c r="I31">
+        <v>3592195</v>
+      </c>
+      <c r="J31">
         <v>205452.9375</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>309172.09375</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>18716.15842882456</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>15579.33941442009</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>18717.826171875</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>18585.93896150975</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-773022.5625</v>
-      </c>
-      <c r="P31">
-        <v>8982021</v>
       </c>
       <c r="Q31">
         <v>2258933</v>
@@ -6959,28 +6959,28 @@
         <v>322502.5625</v>
       </c>
       <c r="I32">
+        <v>3772427.5</v>
+      </c>
+      <c r="J32">
         <v>172789.796875</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>250254.0625</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>13754.15985535965</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>58967.53195235646</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-1.034033266478218E-05</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>12208.7375</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>548549.5</v>
-      </c>
-      <c r="P32">
-        <v>9602375</v>
       </c>
       <c r="Q32">
         <v>1956805.75</v>
@@ -7012,28 +7012,28 @@
         <v>432071.8125</v>
       </c>
       <c r="I33">
+        <v>3972464.25</v>
+      </c>
+      <c r="J33">
         <v>210859.953125</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>343932.75</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>52629.39965911176</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>48889.56460206227</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>52628.421875</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>50912.50268977389</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>547012.875</v>
-      </c>
-      <c r="P33">
-        <v>10501266</v>
       </c>
       <c r="Q33">
         <v>2263124.75</v>
@@ -7065,28 +7065,28 @@
         <v>453770.53125</v>
       </c>
       <c r="I34">
+        <v>4037410.75</v>
+      </c>
+      <c r="J34">
         <v>198945.265625</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>397025.8125</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>62818.23994872315</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>58967.53195235646</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>62824.4921875</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>66171.72629936732</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>11463.703125</v>
-      </c>
-      <c r="P34">
-        <v>10846620</v>
       </c>
       <c r="Q34">
         <v>3377862.25</v>
